--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H2">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I2">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J2">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>33.500798182743</v>
+        <v>37.74885230861332</v>
       </c>
       <c r="R2">
-        <v>33.500798182743</v>
+        <v>339.73967077752</v>
       </c>
       <c r="S2">
-        <v>0.01306227441132654</v>
+        <v>0.01346730886560945</v>
       </c>
       <c r="T2">
-        <v>0.01306227441132654</v>
+        <v>0.01346730886560945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H3">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I3">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J3">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>383.979723590216</v>
+        <v>406.40022777256</v>
       </c>
       <c r="R3">
-        <v>383.979723590216</v>
+        <v>3657.60204995304</v>
       </c>
       <c r="S3">
-        <v>0.1497172840647238</v>
+        <v>0.1449876501071337</v>
       </c>
       <c r="T3">
-        <v>0.1497172840647238</v>
+        <v>0.1449876501071337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H4">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I4">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J4">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>565.2446691647322</v>
+        <v>600.04079427488</v>
       </c>
       <c r="R4">
-        <v>565.2446691647322</v>
+        <v>5400.36714847392</v>
       </c>
       <c r="S4">
-        <v>0.220394180995143</v>
+        <v>0.2140710038652371</v>
       </c>
       <c r="T4">
-        <v>0.220394180995143</v>
+        <v>0.2140710038652371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H5">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I5">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J5">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>809.2319201781887</v>
+        <v>889.4486995727998</v>
       </c>
       <c r="R5">
-        <v>809.2319201781887</v>
+        <v>8005.038296155199</v>
       </c>
       <c r="S5">
-        <v>0.3155270912087476</v>
+        <v>0.3173203852485968</v>
       </c>
       <c r="T5">
-        <v>0.3155270912087476</v>
+        <v>0.3173203852485968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H6">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I6">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J6">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>181.3594301884126</v>
+        <v>212.6992799760266</v>
       </c>
       <c r="R6">
-        <v>181.3594301884126</v>
+        <v>1914.29351978424</v>
       </c>
       <c r="S6">
-        <v>0.07071373736471664</v>
+        <v>0.07588275467321393</v>
       </c>
       <c r="T6">
-        <v>0.07071373736471664</v>
+        <v>0.07588275467321394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>1.360273213151095</v>
+        <v>1.567918989647111</v>
       </c>
       <c r="R7">
-        <v>1.360273213151095</v>
+        <v>14.111270906824</v>
       </c>
       <c r="S7">
-        <v>0.0005303832430389468</v>
+        <v>0.0005593719548663971</v>
       </c>
       <c r="T7">
-        <v>0.0005303832430389468</v>
+        <v>0.0005593719548663972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>15.59119067980863</v>
+        <v>16.88005318180533</v>
       </c>
       <c r="R8">
-        <v>15.59119067980863</v>
+        <v>151.920478636248</v>
       </c>
       <c r="S8">
-        <v>0.006079151008523881</v>
+        <v>0.006022140435125633</v>
       </c>
       <c r="T8">
-        <v>0.006079151008523881</v>
+        <v>0.006022140435125633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>22.95130934334898</v>
+        <v>24.92301880372267</v>
       </c>
       <c r="R9">
-        <v>22.95130934334898</v>
+        <v>224.307169233504</v>
       </c>
       <c r="S9">
-        <v>0.008948930085388202</v>
+        <v>0.008891554883551768</v>
       </c>
       <c r="T9">
-        <v>0.008948930085388202</v>
+        <v>0.008891554883551768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J10">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>32.85821723532097</v>
+        <v>36.94373261935999</v>
       </c>
       <c r="R10">
-        <v>32.85821723532097</v>
+        <v>332.4935935742399</v>
       </c>
       <c r="S10">
-        <v>0.0128117260924199</v>
+        <v>0.0131800737613389</v>
       </c>
       <c r="T10">
-        <v>0.0128117260924199</v>
+        <v>0.0131800737613389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J11">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N11">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q11">
-        <v>7.363955135992061</v>
+        <v>8.834579590187555</v>
       </c>
       <c r="R11">
-        <v>7.363955135992061</v>
+        <v>79.51121631168799</v>
       </c>
       <c r="S11">
-        <v>0.002871274953340525</v>
+        <v>0.003151831241547903</v>
       </c>
       <c r="T11">
-        <v>0.002871274953340525</v>
+        <v>0.003151831241547903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H12">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N12">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q12">
-        <v>1.992985964500626</v>
+        <v>2.187993439663777</v>
       </c>
       <c r="R12">
-        <v>1.992985964500626</v>
+        <v>19.691940956974</v>
       </c>
       <c r="S12">
-        <v>0.0007770838600388817</v>
+        <v>0.0007805901807816241</v>
       </c>
       <c r="T12">
-        <v>0.0007770838600388817</v>
+        <v>0.0007805901807816242</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H13">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N13">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q13">
-        <v>22.84322288662173</v>
+        <v>23.55571038225533</v>
       </c>
       <c r="R13">
-        <v>22.84322288662173</v>
+        <v>212.001393440298</v>
       </c>
       <c r="S13">
-        <v>0.008906786165407016</v>
+        <v>0.008403752905470229</v>
       </c>
       <c r="T13">
-        <v>0.008906786165407016</v>
+        <v>0.008403752905470229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H14">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I14">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J14">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N14">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q14">
-        <v>33.62680154690789</v>
+        <v>34.77947649032266</v>
       </c>
       <c r="R14">
-        <v>33.62680154690789</v>
+        <v>313.0152884129039</v>
       </c>
       <c r="S14">
-        <v>0.01311140430102332</v>
+        <v>0.01240795212130209</v>
       </c>
       <c r="T14">
-        <v>0.01311140430102332</v>
+        <v>0.01240795212130209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H15">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I15">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J15">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N15">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q15">
-        <v>48.14177411963289</v>
+        <v>51.55409504035999</v>
       </c>
       <c r="R15">
-        <v>48.14177411963289</v>
+        <v>463.9868553632399</v>
       </c>
       <c r="S15">
-        <v>0.01877092780800288</v>
+        <v>0.01839247761811004</v>
       </c>
       <c r="T15">
-        <v>0.01877092780800288</v>
+        <v>0.01839247761811004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H16">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I16">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J16">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N16">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q16">
-        <v>10.78919961619084</v>
+        <v>12.32844446247089</v>
       </c>
       <c r="R16">
-        <v>10.78919961619084</v>
+        <v>110.956000162238</v>
       </c>
       <c r="S16">
-        <v>0.004206809798874007</v>
+        <v>0.004398305094184913</v>
       </c>
       <c r="T16">
-        <v>0.004206809798874007</v>
+        <v>0.004398305094184913</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H17">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I17">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J17">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N17">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q17">
-        <v>4.006832979629714</v>
+        <v>4.587588654271999</v>
       </c>
       <c r="R17">
-        <v>4.006832979629714</v>
+        <v>41.288297888448</v>
       </c>
       <c r="S17">
-        <v>0.001562301638748331</v>
+        <v>0.001636671569518139</v>
       </c>
       <c r="T17">
-        <v>0.001562301638748331</v>
+        <v>0.00163667156951814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H18">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I18">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J18">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N18">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q18">
-        <v>45.92555113456719</v>
+        <v>49.38950352134399</v>
       </c>
       <c r="R18">
-        <v>45.92555113456719</v>
+        <v>444.5055316920959</v>
       </c>
       <c r="S18">
-        <v>0.01790680174659669</v>
+        <v>0.01762023632409286</v>
       </c>
       <c r="T18">
-        <v>0.01790680174659669</v>
+        <v>0.01762023632409286</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H19">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I19">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J19">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N19">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q19">
-        <v>67.60558269730437</v>
+        <v>72.92249092531199</v>
       </c>
       <c r="R19">
-        <v>67.60558269730437</v>
+        <v>656.3024183278079</v>
       </c>
       <c r="S19">
-        <v>0.02636004874011374</v>
+        <v>0.02601588256278445</v>
       </c>
       <c r="T19">
-        <v>0.02636004874011374</v>
+        <v>0.02601588256278445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H20">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I20">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J20">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N20">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q20">
-        <v>96.78745945848263</v>
+        <v>108.09400851072</v>
       </c>
       <c r="R20">
-        <v>96.78745945848263</v>
+        <v>972.8460765964797</v>
       </c>
       <c r="S20">
-        <v>0.03773833531145813</v>
+        <v>0.03856369955924516</v>
       </c>
       <c r="T20">
-        <v>0.03773833531145813</v>
+        <v>0.03856369955924517</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H21">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I21">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J21">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N21">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q21">
-        <v>21.69133231040781</v>
+        <v>25.849178025664</v>
       </c>
       <c r="R21">
-        <v>21.69133231040781</v>
+        <v>232.642602230976</v>
       </c>
       <c r="S21">
-        <v>0.008457653260684825</v>
+        <v>0.009221972142297684</v>
       </c>
       <c r="T21">
-        <v>0.008457653260684825</v>
+        <v>0.009221972142297686</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H22">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I22">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J22">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N22">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q22">
-        <v>2.679743765565542</v>
+        <v>3.205566946160222</v>
       </c>
       <c r="R22">
-        <v>2.679743765565542</v>
+        <v>28.850102515442</v>
       </c>
       <c r="S22">
-        <v>0.001044857147191487</v>
+        <v>0.001143620468256668</v>
       </c>
       <c r="T22">
-        <v>0.001044857147191487</v>
+        <v>0.001143620468256668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H23">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I23">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J23">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N23">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q23">
-        <v>30.71470908787197</v>
+        <v>34.51080118699267</v>
       </c>
       <c r="R23">
-        <v>30.71470908787197</v>
+        <v>310.597210682934</v>
       </c>
       <c r="S23">
-        <v>0.01197595222601346</v>
+        <v>0.01231209931854864</v>
       </c>
       <c r="T23">
-        <v>0.01197595222601346</v>
+        <v>0.01231209931854864</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H24">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I24">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J24">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N24">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q24">
-        <v>45.21417280719029</v>
+        <v>50.95442162718134</v>
       </c>
       <c r="R24">
-        <v>45.21417280719029</v>
+        <v>458.589794644632</v>
       </c>
       <c r="S24">
-        <v>0.01762942868605707</v>
+        <v>0.01817853768140028</v>
       </c>
       <c r="T24">
-        <v>0.01762942868605707</v>
+        <v>0.01817853768140028</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H25">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I25">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J25">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N25">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q25">
-        <v>64.73082167072643</v>
+        <v>75.53043807387999</v>
       </c>
       <c r="R25">
-        <v>64.73082167072643</v>
+        <v>679.7739426649199</v>
       </c>
       <c r="S25">
-        <v>0.02523915253963183</v>
+        <v>0.02694629574376841</v>
       </c>
       <c r="T25">
-        <v>0.02523915253963183</v>
+        <v>0.02694629574376841</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.34967468925711</v>
+        <v>1.512380666666667</v>
       </c>
       <c r="H26">
-        <v>1.34967468925711</v>
+        <v>4.537142</v>
       </c>
       <c r="I26">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="J26">
-        <v>0.06154581394168308</v>
+        <v>0.0650243848859912</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N26">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q26">
-        <v>14.50702158566077</v>
+        <v>18.06205327221711</v>
       </c>
       <c r="R26">
-        <v>14.50702158566077</v>
+        <v>162.558479449954</v>
       </c>
       <c r="S26">
-        <v>0.00565642334278923</v>
+        <v>0.006443831674017197</v>
       </c>
       <c r="T26">
-        <v>0.00565642334278923</v>
+        <v>0.006443831674017197</v>
       </c>
     </row>
   </sheetData>
